--- a/medicine/Enfance/Le_Petit_Chaperon_rouge_à_Manhattan/Le_Petit_Chaperon_rouge_à_Manhattan.xlsx
+++ b/medicine/Enfance/Le_Petit_Chaperon_rouge_à_Manhattan/Le_Petit_Chaperon_rouge_à_Manhattan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Petit_Chaperon_rouge_%C3%A0_Manhattan</t>
+          <t>Le_Petit_Chaperon_rouge_à_Manhattan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Petit Chaperon rouge à Manhattan (Caperucita en Manhattan) est un roman espagnol de littérature d'enfance et de jeunesse de l'écrivaine Carmen Martín Gaite paru en 1990.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Petit_Chaperon_rouge_%C3%A0_Manhattan</t>
+          <t>Le_Petit_Chaperon_rouge_à_Manhattan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire du Petit Chaperon rouge, tout le monde la connaît... Oui, mais les temps changent! Sarah ne lit pas dans les bois, mais dans une grande ville ; la galette et le petit pot de beurre se sont transformés en une tarte aux fraises; la grand-mère est une ancienne chanteuse de music-hall mariée plusieurs fois et le loup un pâtissier milliardaire !
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Petit_Chaperon_rouge_%C3%A0_Manhattan</t>
+          <t>Le_Petit_Chaperon_rouge_à_Manhattan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Édition originale espagnole
-Caperucita en Manhattan, Madrid, Édiciones Siruela, coll. « Las tres edades » no 3, 1990
-Éditions françaises
-Le Petit Chaperon rouge à Manhattan, traduit par Mireille Duprat-Debenne, Paris, Flammarion, coll. « Castor poche. Senior » no 633, 1998  (ISBN 2-08-164208-5)
+          <t>Édition originale espagnole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Caperucita en Manhattan, Madrid, Édiciones Siruela, coll. « Las tres edades » no 3, 1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Le_Petit_Chaperon_rouge_à_Manhattan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Petit_Chaperon_rouge_%C3%A0_Manhattan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Éditions françaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Petit Chaperon rouge à Manhattan, traduit par Mireille Duprat-Debenne, Paris, Flammarion, coll. « Castor poche. Senior » no 633, 1998  (ISBN 2-08-164208-5)
 Le Petit Chaperon rouge à Manhattan, traduit par Mireille Duprat-Debenne, Paris, Flammarion, coll. « Flammarion jeunesse », 2010  (ISBN 978-2-08-124356-9)
  Portail de la littérature   Portail de la littérature d’enfance et de jeunesse   Portail de l’Espagne                   </t>
         </is>
